--- a/P1/wf_Meta/test_sheets/shopping.xlsx
+++ b/P1/wf_Meta/test_sheets/shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature_Program\Michael-Lozano-P1\P1\wf_Meta\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E51B1-1F48-4948-AD1E-76AAE68C0DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC61311-2149-4DAA-AFBD-0C9ABAF450A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3915" windowWidth="29040" windowHeight="15720" xr2:uid="{2C606C96-B966-4BE5-9712-0F59E6EF1F1E}"/>
+    <workbookView xWindow="26070" yWindow="-1560" windowWidth="21600" windowHeight="11295" xr2:uid="{2C606C96-B966-4BE5-9712-0F59E6EF1F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="PEGA" sheetId="1" r:id="rId1"/>
@@ -44,19 +44,19 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Aniseed Syrup</t>
-  </si>
-  <si>
-    <t>Chai</t>
-  </si>
-  <si>
-    <t>Chang</t>
-  </si>
-  <si>
-    <t>Chartreuse verte</t>
-  </si>
-  <si>
-    <t>Chef Anton's Cajun Seasoning</t>
+    <t>Louisiana Hot Spiced Okra</t>
+  </si>
+  <si>
+    <t>Northwoods Cranberry Sauce</t>
+  </si>
+  <si>
+    <t>Original Frankfurter Grune SoBe</t>
+  </si>
+  <si>
+    <t>Outback Lager</t>
+  </si>
+  <si>
+    <t>Rhonbrau Klosterbier</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,23 +426,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -450,18 +450,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
